--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="8355"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>可变定时预测退出</t>
+  </si>
+  <si>
+    <t>AudioSourceType</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>默认音源</t>
+  </si>
+  <si>
+    <t>CHARACTER_MOUTH</t>
+  </si>
+  <si>
+    <t>音源来自角色嘴巴</t>
+  </si>
+  <si>
+    <t>CHARACTER_BODY</t>
+  </si>
+  <si>
+    <t>音源来自角色身体</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>音源来自技能</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1148,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1348,6 +1375,59 @@
     <row r="14" spans="14:14">
       <c r="N14" s="4"/>
     </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10">
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:L1"/>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>音源来自技能</t>
+  </si>
+  <si>
+    <t>CHARACTER_FOOT</t>
+  </si>
+  <si>
+    <t>音源来自角色脚</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1154,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1160,7 +1166,7 @@
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5083333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -1426,6 +1432,17 @@
       </c>
       <c r="J18" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
